--- a/Расчёты.xlsx
+++ b/Расчёты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\GasChannel\GasChannel20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09BD8C55-F419-480B-9976-BECE1A650C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99F455-83D1-4F96-9952-74EECF89D394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-13650" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет потерь энергии" sheetId="1" r:id="rId1"/>
@@ -805,13 +805,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -987,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,31 +1002,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1053,6 +1045,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2061,12 +2059,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.68792080094465802"/>
           <c:y val="0.32767140949486578"/>
-          <c:w val="0.98304741758026515"/>
-          <c:h val="0.73194133628033342"/>
+          <c:w val="0.29512661663560713"/>
+          <c:h val="0.40426992678546764"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2478,12 +2474,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.68813083296094835"/>
           <c:y val="0.25089172517695213"/>
-          <c:w val="0.98443646598969647"/>
-          <c:h val="0.91875797113808422"/>
+          <c:w val="0.29630563302874813"/>
+          <c:h val="0.66786624596113209"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2560,14 +2554,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2584,7 +2578,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2592,15 +2586,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="17257" r="16932"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4810125" y="523875"/>
-          <a:ext cx="8096250" cy="3381375"/>
+          <a:off x="6196854" y="515471"/>
+          <a:ext cx="5311587" cy="3332629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3107,11 +3099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3126,23 +3118,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3150,16 +3142,16 @@
       </c>
       <c r="B2" s="8">
         <f ca="1">TODAY()</f>
-        <v>44105</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -3195,7 +3187,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
@@ -3209,7 +3201,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1">
         <v>2.15</v>
       </c>
@@ -3232,11 +3224,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3259,6 +3251,10 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="1">
+        <f>(B8*B9) / (B13*B14)</f>
+        <v>10.903571428571428</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -3291,11 +3287,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -3366,11 +3362,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3534,66 +3530,66 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="H45" s="16" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="H45" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="51" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="H51" s="1" t="s">
         <v>14</v>
       </c>
@@ -3606,24 +3602,24 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
       <c r="H54" s="1" t="s">
         <v>17</v>
       </c>
@@ -3636,11 +3632,11 @@
       </c>
     </row>
     <row r="55" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="H55" s="1" t="s">
         <v>18</v>
       </c>
@@ -3653,13 +3649,13 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
       <c r="H57" s="1" t="s">
         <v>21</v>
       </c>
@@ -3672,13 +3668,13 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
       <c r="H59" s="1" t="s">
         <v>28</v>
       </c>
@@ -3691,13 +3687,13 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
       <c r="H62" s="1" t="s">
         <v>32</v>
       </c>
@@ -3710,13 +3706,13 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
       <c r="H64" s="1" t="s">
         <v>36</v>
       </c>
@@ -3729,12 +3725,12 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
       <c r="H66" s="1" t="s">
         <v>36</v>
       </c>
@@ -3747,12 +3743,12 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
       <c r="I68" s="2">
         <f>I64+I66</f>
         <v>3.9169317632773888</v>
@@ -3767,12 +3763,12 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
       <c r="H70" s="1" t="s">
         <v>94</v>
       </c>
@@ -3785,12 +3781,12 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
       <c r="H72" s="1" t="s">
         <v>77</v>
       </c>
@@ -3806,29 +3802,29 @@
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
       <c r="H77" s="1" t="s">
         <v>82</v>
       </c>
@@ -3841,13 +3837,13 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
       <c r="H79" s="1" t="s">
         <v>85</v>
       </c>
@@ -3860,13 +3856,13 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
       <c r="H81" s="1" t="s">
         <v>89</v>
       </c>
@@ -3879,12 +3875,12 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
       <c r="H83" s="1" t="s">
         <v>92</v>
       </c>
@@ -3897,13 +3893,13 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
       <c r="H85" s="1" t="s">
         <v>36</v>
       </c>
@@ -3916,20 +3912,20 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
     </row>
     <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
       <c r="H88" s="1" t="s">
         <v>96</v>
       </c>
@@ -3942,51 +3938,51 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
       <c r="H93" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I93" s="1">
         <f>(C131*B6*I54*I54*B30)/(2*B23)</f>
-        <v>2.2319429471496122</v>
+        <v>2.2319429471496126</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
       <c r="H95" s="1" t="s">
         <v>115</v>
       </c>
@@ -3999,12 +3995,12 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
       <c r="H97" s="1" t="s">
         <v>122</v>
       </c>
@@ -4017,13 +4013,13 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
       <c r="H99" s="1" t="s">
         <v>112</v>
       </c>
@@ -4036,33 +4032,33 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
       <c r="I102" s="1">
         <f>I99+I93</f>
         <v>3.2557163734894603</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
       <c r="H104" s="1" t="s">
         <v>125</v>
       </c>
@@ -4075,13 +4071,13 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
       <c r="H106" s="1" t="s">
         <v>127</v>
       </c>
@@ -4097,13 +4093,13 @@
       <c r="A108" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
@@ -4113,12 +4109,12 @@
       <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="6"/>
       <c r="H110" s="1" t="s">
         <v>131</v>
@@ -4139,12 +4135,12 @@
       <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
       <c r="F112" s="6"/>
       <c r="H112" s="1" t="s">
         <v>133</v>
@@ -4168,13 +4164,13 @@
       <c r="A114" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
       <c r="H114" s="1" t="s">
         <v>135</v>
       </c>
@@ -4187,11 +4183,11 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B116" s="6"/>
@@ -4229,12 +4225,12 @@
       <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4260,7 +4256,7 @@
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -4274,116 +4270,127 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
+      <c r="A125" s="19"/>
       <c r="B125" s="3">
         <v>0</v>
       </c>
       <c r="C125" s="3">
+        <f>POWER(1-$B125,2)</f>
         <v>1</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
+      <c r="A126" s="19"/>
       <c r="B126" s="3">
         <v>0.1</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="9">
+        <f t="shared" ref="C126:C135" si="0">POWER(1-$B126,2)</f>
         <v>0.81</v>
       </c>
-      <c r="D126" s="22"/>
+      <c r="D126" s="21"/>
     </row>
     <row r="127" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="3">
         <v>0.2</v>
       </c>
-      <c r="C127" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="D127" s="22"/>
+      <c r="C127" s="9">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="D127" s="21"/>
     </row>
     <row r="128" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
+      <c r="A128" s="19"/>
       <c r="B128" s="3">
         <v>0.3</v>
       </c>
-      <c r="C128" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="D128" s="22"/>
+      <c r="C128" s="9">
+        <f t="shared" si="0"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D128" s="21"/>
     </row>
     <row r="129" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
+      <c r="A129" s="19"/>
       <c r="B129" s="3">
         <v>0.4</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="9">
+        <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="D129" s="22"/>
+      <c r="D129" s="21"/>
     </row>
     <row r="130" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
+      <c r="A130" s="19"/>
       <c r="B130" s="3">
         <v>0.5</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="9">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="D130" s="22"/>
+      <c r="D130" s="21"/>
     </row>
     <row r="131" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
+      <c r="A131" s="19"/>
       <c r="B131" s="3">
         <v>0.6</v>
       </c>
-      <c r="C131" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D131" s="22"/>
+      <c r="C131" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D131" s="21"/>
     </row>
     <row r="132" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
+      <c r="A132" s="19"/>
       <c r="B132" s="3">
         <v>0.7</v>
       </c>
-      <c r="C132" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="D132" s="22"/>
+      <c r="C132" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="D132" s="21"/>
     </row>
     <row r="133" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
+      <c r="A133" s="19"/>
       <c r="B133" s="3">
         <v>0.8</v>
       </c>
-      <c r="C133" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="D133" s="22"/>
+      <c r="C133" s="9">
+        <f t="shared" si="0"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="D133" s="21"/>
     </row>
     <row r="134" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
+      <c r="A134" s="19"/>
       <c r="B134" s="3">
         <v>0.9</v>
       </c>
-      <c r="C134" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D134" s="22"/>
+      <c r="C134" s="9">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="D134" s="21"/>
     </row>
     <row r="135" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="21"/>
+      <c r="A135" s="20"/>
       <c r="B135" s="3">
         <v>1</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D135" s="22"/>
+      <c r="D135" s="21"/>
     </row>
     <row r="136" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
@@ -4396,7 +4403,7 @@
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -4405,107 +4412,107 @@
       <c r="C137" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D137" s="22"/>
+      <c r="D137" s="21"/>
     </row>
     <row r="138" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
+      <c r="A138" s="19"/>
       <c r="B138" s="3">
         <v>0.1</v>
       </c>
       <c r="C138" s="3">
         <v>0.5</v>
       </c>
-      <c r="D138" s="22"/>
+      <c r="D138" s="21"/>
     </row>
     <row r="139" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
+      <c r="A139" s="19"/>
       <c r="B139" s="3">
         <v>0.2</v>
       </c>
       <c r="C139" s="3">
         <v>0.46</v>
       </c>
-      <c r="D139" s="22"/>
+      <c r="D139" s="21"/>
     </row>
     <row r="140" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
+      <c r="A140" s="19"/>
       <c r="B140" s="3">
         <v>0.3</v>
       </c>
       <c r="C140" s="3">
         <v>0.43</v>
       </c>
-      <c r="D140" s="22"/>
+      <c r="D140" s="21"/>
     </row>
     <row r="141" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
+      <c r="A141" s="19"/>
       <c r="B141" s="3">
         <v>0.4</v>
       </c>
       <c r="C141" s="3">
         <v>0.37</v>
       </c>
-      <c r="D141" s="22"/>
+      <c r="D141" s="21"/>
     </row>
     <row r="142" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
+      <c r="A142" s="19"/>
       <c r="B142" s="3">
         <v>0.5</v>
       </c>
       <c r="C142" s="3">
         <v>0.32</v>
       </c>
-      <c r="D142" s="22"/>
+      <c r="D142" s="21"/>
     </row>
     <row r="143" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
+      <c r="A143" s="19"/>
       <c r="B143" s="3">
         <v>0.6</v>
       </c>
       <c r="C143" s="3">
         <v>0.26</v>
       </c>
-      <c r="D143" s="22"/>
+      <c r="D143" s="21"/>
     </row>
     <row r="144" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
+      <c r="A144" s="19"/>
       <c r="B144" s="3">
         <v>0.7</v>
       </c>
       <c r="C144" s="3">
         <v>0.2</v>
       </c>
-      <c r="D144" s="22"/>
+      <c r="D144" s="21"/>
     </row>
     <row r="145" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
+      <c r="A145" s="19"/>
       <c r="B145" s="3">
         <v>0.8</v>
       </c>
       <c r="C145" s="3">
         <v>0.13</v>
       </c>
-      <c r="D145" s="22"/>
+      <c r="D145" s="21"/>
     </row>
     <row r="146" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
+      <c r="A146" s="19"/>
       <c r="B146" s="3">
         <v>0.9</v>
       </c>
       <c r="C146" s="3">
         <v>0.06</v>
       </c>
-      <c r="D146" s="22"/>
+      <c r="D146" s="21"/>
     </row>
     <row r="147" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="21"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="3">
         <v>1</v>
       </c>
       <c r="C147" s="3">
         <v>0</v>
       </c>
-      <c r="D147" s="22"/>
+      <c r="D147" s="21"/>
     </row>
     <row r="148" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
@@ -4518,7 +4525,7 @@
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="19" t="s">
+      <c r="A149" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B149" s="4"/>
@@ -4530,7 +4537,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
+      <c r="A150" s="19"/>
       <c r="B150" s="4"/>
       <c r="C150" s="3">
         <v>0.5</v>
@@ -4540,7 +4547,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
+      <c r="A151" s="19"/>
       <c r="B151" s="4"/>
       <c r="C151" s="3">
         <v>1.5</v>
@@ -4550,7 +4557,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="21"/>
+      <c r="A152" s="20"/>
       <c r="B152" s="4"/>
       <c r="C152" s="3">
         <v>2</v>
@@ -4567,7 +4574,7 @@
       <c r="C153" s="3">
         <v>1</v>
       </c>
-      <c r="D153" s="22"/>
+      <c r="D153" s="21"/>
     </row>
     <row r="154" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
@@ -4577,7 +4584,7 @@
       <c r="C154" s="3">
         <v>0.35</v>
       </c>
-      <c r="D154" s="22"/>
+      <c r="D154" s="21"/>
     </row>
     <row r="155" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
@@ -4587,7 +4594,7 @@
       <c r="C155" s="3">
         <v>1</v>
       </c>
-      <c r="D155" s="22"/>
+      <c r="D155" s="21"/>
     </row>
     <row r="156" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
@@ -4597,7 +4604,7 @@
       <c r="C156" s="3">
         <v>0.1</v>
       </c>
-      <c r="D156" s="22"/>
+      <c r="D156" s="21"/>
     </row>
     <row r="157" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
@@ -4607,7 +4614,7 @@
       <c r="C157" s="3">
         <v>2</v>
       </c>
-      <c r="D157" s="22"/>
+      <c r="D157" s="21"/>
     </row>
     <row r="158" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
@@ -4617,10 +4624,10 @@
       <c r="C158" s="3">
         <v>0.5</v>
       </c>
-      <c r="D158" s="22"/>
+      <c r="D158" s="21"/>
     </row>
     <row r="159" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
+      <c r="A159" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B159" s="4"/>
@@ -4632,7 +4639,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
+      <c r="A160" s="19"/>
       <c r="B160" s="4"/>
       <c r="C160" s="3">
         <v>2.5</v>
@@ -4642,7 +4649,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="21"/>
+      <c r="A161" s="20"/>
       <c r="B161" s="4"/>
       <c r="C161" s="3">
         <v>1.5</v>
@@ -4652,7 +4659,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="19" t="s">
+      <c r="A162" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B162" s="4"/>
@@ -4664,7 +4671,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
+      <c r="A163" s="19"/>
       <c r="B163" s="4"/>
       <c r="C163" s="3">
         <v>10</v>
@@ -4674,7 +4681,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
+      <c r="A164" s="19"/>
       <c r="B164" s="4"/>
       <c r="C164" s="3">
         <v>20</v>
@@ -4684,7 +4691,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
+      <c r="A165" s="19"/>
       <c r="B165" s="4"/>
       <c r="C165" s="3">
         <v>30</v>
@@ -4694,7 +4701,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
+      <c r="A166" s="19"/>
       <c r="B166" s="4"/>
       <c r="C166" s="3">
         <v>40</v>
@@ -4704,7 +4711,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
+      <c r="A167" s="19"/>
       <c r="B167" s="4"/>
       <c r="C167" s="3">
         <v>50</v>
@@ -4714,7 +4721,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+      <c r="A168" s="19"/>
       <c r="B168" s="4"/>
       <c r="C168" s="3">
         <v>60</v>
@@ -4724,7 +4731,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
+      <c r="A169" s="19"/>
       <c r="B169" s="4"/>
       <c r="C169" s="3">
         <v>70</v>
@@ -4734,7 +4741,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
+      <c r="A170" s="19"/>
       <c r="B170" s="4"/>
       <c r="C170" s="3">
         <v>80</v>
@@ -4744,7 +4751,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
+      <c r="A171" s="19"/>
       <c r="B171" s="4"/>
       <c r="C171" s="3">
         <v>90</v>
@@ -4754,7 +4761,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="21"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="4"/>
       <c r="C172" s="3">
         <v>100</v>
@@ -4775,16 +4782,32 @@
     <mergeCell ref="B81:F81"/>
     <mergeCell ref="B68:E68"/>
     <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A137:A147"/>
+    <mergeCell ref="D137:D147"/>
+    <mergeCell ref="B114:F115"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B95:F95"/>
     <mergeCell ref="B54:F55"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A124:A135"/>
-    <mergeCell ref="A137:A147"/>
     <mergeCell ref="D125:D135"/>
-    <mergeCell ref="D137:D147"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B85:F86"/>
+    <mergeCell ref="B88:F89"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B99:F100"/>
+    <mergeCell ref="B104:F104"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A8:A9"/>
@@ -4797,24 +4820,8 @@
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B74:F75"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B85:F86"/>
-    <mergeCell ref="B88:F89"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B114:F115"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B99:F100"/>
-    <mergeCell ref="B104:F104"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
